--- a/results/xlsx/t3.xlsx
+++ b/results/xlsx/t3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\results\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E0BF1-4220-420C-B3D0-05068CE31E63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC135854-D9BD-4293-8FD4-1DA4C631857C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>IntStream</t>
   </si>
@@ -594,7 +594,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -626,7 +626,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1214,7 +1214,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1287,7 +1287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1329,7 +1329,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1369,7 +1369,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
